--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3699113333333333</v>
+        <v>0.234784</v>
       </c>
       <c r="H2">
-        <v>1.109734</v>
+        <v>0.704352</v>
       </c>
       <c r="I2">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="J2">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +567,22 @@
         <v>1.65374</v>
       </c>
       <c r="O2">
-        <v>0.4731086696060851</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="P2">
-        <v>0.4731086696060852</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="Q2">
-        <v>0.2039123894622222</v>
+        <v>0.1294238973866667</v>
       </c>
       <c r="R2">
-        <v>1.83521150516</v>
+        <v>1.16481507648</v>
       </c>
       <c r="S2">
-        <v>0.06384587146555469</v>
+        <v>0.09863706058839809</v>
       </c>
       <c r="T2">
-        <v>0.06384587146555469</v>
+        <v>0.09863706058839809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +605,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3699113333333333</v>
+        <v>0.234784</v>
       </c>
       <c r="H3">
-        <v>1.109734</v>
+        <v>0.704352</v>
       </c>
       <c r="I3">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="J3">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.131089</v>
+        <v>0.2660283333333333</v>
       </c>
       <c r="N3">
-        <v>0.393267</v>
+        <v>0.7980849999999999</v>
       </c>
       <c r="O3">
-        <v>0.1125074238816116</v>
+        <v>0.2435808925953191</v>
       </c>
       <c r="P3">
-        <v>0.1125074238816116</v>
+        <v>0.2435808925953191</v>
       </c>
       <c r="Q3">
-        <v>0.04849130677533334</v>
+        <v>0.06245919621333332</v>
       </c>
       <c r="R3">
-        <v>0.4364217609780001</v>
+        <v>0.5621327659199999</v>
       </c>
       <c r="S3">
-        <v>0.01518284272838796</v>
+        <v>0.04760165352455143</v>
       </c>
       <c r="T3">
-        <v>0.01518284272838796</v>
+        <v>0.04760165352455143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3699113333333333</v>
+        <v>0.234784</v>
       </c>
       <c r="H4">
-        <v>1.109734</v>
+        <v>0.704352</v>
       </c>
       <c r="I4">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="J4">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3065203333333333</v>
+        <v>0.018172</v>
       </c>
       <c r="N4">
-        <v>0.919561</v>
+        <v>0.054516</v>
       </c>
       <c r="O4">
-        <v>0.263071753317717</v>
+        <v>0.01663864869121261</v>
       </c>
       <c r="P4">
-        <v>0.263071753317717</v>
+        <v>0.01663864869121261</v>
       </c>
       <c r="Q4">
-        <v>0.1133853451971111</v>
+        <v>0.004266494848</v>
       </c>
       <c r="R4">
-        <v>1.020468106774</v>
+        <v>0.038398453632</v>
       </c>
       <c r="S4">
-        <v>0.03550145331837952</v>
+        <v>0.003251598192604104</v>
       </c>
       <c r="T4">
-        <v>0.03550145331837952</v>
+        <v>0.003251598192604103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3699113333333333</v>
+        <v>0.234784</v>
       </c>
       <c r="H5">
-        <v>1.109734</v>
+        <v>0.704352</v>
       </c>
       <c r="I5">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="J5">
-        <v>0.1349496966916996</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,27 +753,27 @@
         <v>0.528908</v>
       </c>
       <c r="O5">
-        <v>0.1513121531945864</v>
+        <v>0.1614262675539636</v>
       </c>
       <c r="P5">
-        <v>0.1513121531945864</v>
+        <v>0.1614262675539636</v>
       </c>
       <c r="Q5">
-        <v>0.0652163544968889</v>
+        <v>0.04139304529066667</v>
       </c>
       <c r="R5">
-        <v>0.5869471904720001</v>
+        <v>0.372537407616</v>
       </c>
       <c r="S5">
-        <v>0.02041952917937741</v>
+        <v>0.03154663395799126</v>
       </c>
       <c r="T5">
-        <v>0.02041952917937741</v>
+        <v>0.03154663395799125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +782,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6129226666666666</v>
+        <v>0.234784</v>
       </c>
       <c r="H6">
-        <v>1.838768</v>
+        <v>0.704352</v>
       </c>
       <c r="I6">
-        <v>0.2236042005439168</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="J6">
-        <v>0.2236042005439169</v>
+        <v>0.1954244153445811</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5512466666666667</v>
+        <v>0.08040633333333333</v>
       </c>
       <c r="N6">
-        <v>1.65374</v>
+        <v>0.241219</v>
       </c>
       <c r="O6">
-        <v>0.4731086696060851</v>
+        <v>0.07362165600274442</v>
       </c>
       <c r="P6">
-        <v>0.4731086696060852</v>
+        <v>0.07362165600274442</v>
       </c>
       <c r="Q6">
-        <v>0.3378715769244444</v>
+        <v>0.01887812056533333</v>
       </c>
       <c r="R6">
-        <v>3.04084419232</v>
+        <v>0.169903085088</v>
       </c>
       <c r="S6">
-        <v>0.1057890858376647</v>
+        <v>0.0143874690810362</v>
       </c>
       <c r="T6">
-        <v>0.1057890858376648</v>
+        <v>0.0143874690810362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,40 +859,40 @@
         <v>1.838768</v>
       </c>
       <c r="I7">
-        <v>0.2236042005439168</v>
+        <v>0.5101712799201602</v>
       </c>
       <c r="J7">
-        <v>0.2236042005439169</v>
+        <v>0.5101712799201601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.131089</v>
+        <v>0.5512466666666667</v>
       </c>
       <c r="N7">
-        <v>0.393267</v>
+        <v>1.65374</v>
       </c>
       <c r="O7">
-        <v>0.1125074238816116</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="P7">
-        <v>0.1125074238816116</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="Q7">
-        <v>0.08034741945066666</v>
+        <v>0.3378715769244444</v>
       </c>
       <c r="R7">
-        <v>0.7231267750560001</v>
+        <v>3.04084419232</v>
       </c>
       <c r="S7">
-        <v>0.02515713257230333</v>
+        <v>0.2575000434782717</v>
       </c>
       <c r="T7">
-        <v>0.02515713257230334</v>
+        <v>0.2575000434782716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +921,40 @@
         <v>1.838768</v>
       </c>
       <c r="I8">
-        <v>0.2236042005439168</v>
+        <v>0.5101712799201602</v>
       </c>
       <c r="J8">
-        <v>0.2236042005439169</v>
+        <v>0.5101712799201601</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3065203333333333</v>
+        <v>0.2660283333333333</v>
       </c>
       <c r="N8">
-        <v>0.919561</v>
+        <v>0.7980849999999999</v>
       </c>
       <c r="O8">
-        <v>0.263071753317717</v>
+        <v>0.2435808925953191</v>
       </c>
       <c r="P8">
-        <v>0.263071753317717</v>
+        <v>0.2435808925953191</v>
       </c>
       <c r="Q8">
-        <v>0.1878732600942222</v>
+        <v>0.1630547954755555</v>
       </c>
       <c r="R8">
-        <v>1.690859340848</v>
+        <v>1.46749315928</v>
       </c>
       <c r="S8">
-        <v>0.0588239490862946</v>
+        <v>0.124267975739449</v>
       </c>
       <c r="T8">
-        <v>0.05882394908629461</v>
+        <v>0.124267975739449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +983,10 @@
         <v>1.838768</v>
       </c>
       <c r="I9">
-        <v>0.2236042005439168</v>
+        <v>0.5101712799201602</v>
       </c>
       <c r="J9">
-        <v>0.2236042005439169</v>
+        <v>0.5101712799201601</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1763026666666667</v>
+        <v>0.018172</v>
       </c>
       <c r="N9">
-        <v>0.528908</v>
+        <v>0.054516</v>
       </c>
       <c r="O9">
-        <v>0.1513121531945864</v>
+        <v>0.01663864869121261</v>
       </c>
       <c r="P9">
-        <v>0.1513121531945864</v>
+        <v>0.01663864869121261</v>
       </c>
       <c r="Q9">
-        <v>0.1080599005937778</v>
+        <v>0.01113803069866667</v>
       </c>
       <c r="R9">
-        <v>0.972539105344</v>
+        <v>0.100242276288</v>
       </c>
       <c r="S9">
-        <v>0.03383403304765416</v>
+        <v>0.008488560698937837</v>
       </c>
       <c r="T9">
-        <v>0.03383403304765417</v>
+        <v>0.008488560698937834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.758271333333333</v>
+        <v>0.6129226666666666</v>
       </c>
       <c r="H10">
-        <v>5.274813999999999</v>
+        <v>1.838768</v>
       </c>
       <c r="I10">
-        <v>0.6414461027643836</v>
+        <v>0.5101712799201602</v>
       </c>
       <c r="J10">
-        <v>0.6414461027643836</v>
+        <v>0.5101712799201601</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5512466666666667</v>
+        <v>0.1763026666666667</v>
       </c>
       <c r="N10">
-        <v>1.65374</v>
+        <v>0.528908</v>
       </c>
       <c r="O10">
-        <v>0.4731086696060851</v>
+        <v>0.1614262675539636</v>
       </c>
       <c r="P10">
-        <v>0.4731086696060852</v>
+        <v>0.1614262675539636</v>
       </c>
       <c r="Q10">
-        <v>0.9692412115955554</v>
+        <v>0.1080599005937778</v>
       </c>
       <c r="R10">
-        <v>8.723170904359998</v>
+        <v>0.972539105344</v>
       </c>
       <c r="S10">
-        <v>0.3034737123028657</v>
+        <v>0.08235504553073986</v>
       </c>
       <c r="T10">
-        <v>0.3034737123028657</v>
+        <v>0.08235504553073983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.758271333333333</v>
+        <v>0.6129226666666666</v>
       </c>
       <c r="H11">
-        <v>5.274813999999999</v>
+        <v>1.838768</v>
       </c>
       <c r="I11">
-        <v>0.6414461027643836</v>
+        <v>0.5101712799201602</v>
       </c>
       <c r="J11">
-        <v>0.6414461027643836</v>
+        <v>0.5101712799201601</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.131089</v>
+        <v>0.08040633333333333</v>
       </c>
       <c r="N11">
-        <v>0.393267</v>
+        <v>0.241219</v>
       </c>
       <c r="O11">
-        <v>0.1125074238816116</v>
+        <v>0.07362165600274442</v>
       </c>
       <c r="P11">
-        <v>0.1125074238816116</v>
+        <v>0.07362165600274442</v>
       </c>
       <c r="Q11">
-        <v>0.2304900308153333</v>
+        <v>0.04928286424355555</v>
       </c>
       <c r="R11">
-        <v>2.074410277338</v>
+        <v>0.443545778192</v>
       </c>
       <c r="S11">
-        <v>0.07216744858092028</v>
+        <v>0.03755965447276187</v>
       </c>
       <c r="T11">
-        <v>0.07216744858092028</v>
+        <v>0.03755965447276186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.758271333333333</v>
+        <v>0.353699</v>
       </c>
       <c r="H12">
-        <v>5.274813999999999</v>
+        <v>1.061097</v>
       </c>
       <c r="I12">
-        <v>0.6414461027643836</v>
+        <v>0.2944043047352588</v>
       </c>
       <c r="J12">
-        <v>0.6414461027643836</v>
+        <v>0.2944043047352587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3065203333333333</v>
+        <v>0.5512466666666667</v>
       </c>
       <c r="N12">
-        <v>0.919561</v>
+        <v>1.65374</v>
       </c>
       <c r="O12">
-        <v>0.263071753317717</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="P12">
-        <v>0.263071753317717</v>
+        <v>0.5047325351567603</v>
       </c>
       <c r="Q12">
-        <v>0.5389459151837777</v>
+        <v>0.1949753947533334</v>
       </c>
       <c r="R12">
-        <v>4.850513236653999</v>
+        <v>1.75477855278</v>
       </c>
       <c r="S12">
-        <v>0.1687463509130429</v>
+        <v>0.1485954310900906</v>
       </c>
       <c r="T12">
-        <v>0.1687463509130429</v>
+        <v>0.1485954310900906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1225,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.758271333333333</v>
+        <v>0.353699</v>
       </c>
       <c r="H13">
-        <v>5.274813999999999</v>
+        <v>1.061097</v>
       </c>
       <c r="I13">
-        <v>0.6414461027643836</v>
+        <v>0.2944043047352588</v>
       </c>
       <c r="J13">
-        <v>0.6414461027643836</v>
+        <v>0.2944043047352587</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2660283333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.7980849999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2435808925953191</v>
+      </c>
+      <c r="P13">
+        <v>0.2435808925953191</v>
+      </c>
+      <c r="Q13">
+        <v>0.09409395547166667</v>
+      </c>
+      <c r="R13">
+        <v>0.846845599245</v>
+      </c>
+      <c r="S13">
+        <v>0.07171126333131866</v>
+      </c>
+      <c r="T13">
+        <v>0.07171126333131865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.353699</v>
+      </c>
+      <c r="H14">
+        <v>1.061097</v>
+      </c>
+      <c r="I14">
+        <v>0.2944043047352588</v>
+      </c>
+      <c r="J14">
+        <v>0.2944043047352587</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
+      <c r="M14">
+        <v>0.018172</v>
+      </c>
+      <c r="N14">
+        <v>0.054516</v>
+      </c>
+      <c r="O14">
+        <v>0.01663864869121261</v>
+      </c>
+      <c r="P14">
+        <v>0.01663864869121261</v>
+      </c>
+      <c r="Q14">
+        <v>0.006427418228000001</v>
+      </c>
+      <c r="R14">
+        <v>0.05784676405200001</v>
+      </c>
+      <c r="S14">
+        <v>0.004898489799670673</v>
+      </c>
+      <c r="T14">
+        <v>0.004898489799670671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.353699</v>
+      </c>
+      <c r="H15">
+        <v>1.061097</v>
+      </c>
+      <c r="I15">
+        <v>0.2944043047352588</v>
+      </c>
+      <c r="J15">
+        <v>0.2944043047352587</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
         <v>0.1763026666666667</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>0.528908</v>
       </c>
-      <c r="O13">
-        <v>0.1513121531945864</v>
-      </c>
-      <c r="P13">
-        <v>0.1513121531945864</v>
-      </c>
-      <c r="Q13">
-        <v>0.3099879247902222</v>
-      </c>
-      <c r="R13">
-        <v>2.789891323112</v>
-      </c>
-      <c r="S13">
-        <v>0.09705859096755483</v>
-      </c>
-      <c r="T13">
-        <v>0.09705859096755483</v>
+      <c r="O15">
+        <v>0.1614262675539636</v>
+      </c>
+      <c r="P15">
+        <v>0.1614262675539636</v>
+      </c>
+      <c r="Q15">
+        <v>0.06235807689733335</v>
+      </c>
+      <c r="R15">
+        <v>0.5612226920760002</v>
+      </c>
+      <c r="S15">
+        <v>0.04752458806523253</v>
+      </c>
+      <c r="T15">
+        <v>0.04752458806523251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.353699</v>
+      </c>
+      <c r="H16">
+        <v>1.061097</v>
+      </c>
+      <c r="I16">
+        <v>0.2944043047352588</v>
+      </c>
+      <c r="J16">
+        <v>0.2944043047352587</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08040633333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.241219</v>
+      </c>
+      <c r="O16">
+        <v>0.07362165600274442</v>
+      </c>
+      <c r="P16">
+        <v>0.07362165600274442</v>
+      </c>
+      <c r="Q16">
+        <v>0.02843963969366667</v>
+      </c>
+      <c r="R16">
+        <v>0.255956757243</v>
+      </c>
+      <c r="S16">
+        <v>0.02167453244894637</v>
+      </c>
+      <c r="T16">
+        <v>0.02167453244894636</v>
       </c>
     </row>
   </sheetData>
